--- a/biology/Médecine/Fœtopathologie/Fœtopathologie.xlsx
+++ b/biology/Médecine/Fœtopathologie/Fœtopathologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C5%93topathologie</t>
+          <t>Fœtopathologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fœtopathologie est une discipline médicale qui réalise l’examen médical approfondi des fœtus issus des échecs de la reproduction humaine, qu'il s'agisse de fœtus issus d'une interruption spontanée de la grossesse (fausses couches, morts fœtales in utéro), ou de fœtus issus d'une interruption médicale de grossesse (le plus souvent à la suite d'une ou plusieurs anomalies fœtales en anténatal). L'examen des nouveau-nés décédés en période néonatale, c'est à dire avant 28 jours de vie, relève également de la fœtopathologie. 
 L'examen fœtopathologique comporte plusieurs étapes :
